--- a/Bugasura test cases.xlsx
+++ b/Bugasura test cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8547ecdb3562a77/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="898" documentId="8_{367F2EE1-8E33-4660-AFF4-D19FD34A6E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC526644-243F-490D-8EDA-7BCC2D95CF33}"/>
+  <xr:revisionPtr revIDLastSave="899" documentId="8_{367F2EE1-8E33-4660-AFF4-D19FD34A6E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA2990BD-97C7-41BC-9DCE-0E8B43720BA0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="7" xr2:uid="{06E1CEA4-4029-4170-93C3-B90BAFA52542}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="6" xr2:uid="{06E1CEA4-4029-4170-93C3-B90BAFA52542}"/>
   </bookViews>
   <sheets>
     <sheet name="Test scenario" sheetId="3" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="347">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1321,12 +1321,6 @@
   </si>
   <si>
     <t>When we clicked on a ticket with an attachment and removed the attachment, the help text should display only when we keep the cursor on it.</t>
-  </si>
-  <si>
-    <t>BG_004</t>
-  </si>
-  <si>
-    <t>BG_005</t>
   </si>
   <si>
     <t xml:space="preserve"> not received confirmation email. </t>
@@ -1869,6 +1863,22 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1883,10 +1893,6 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1898,18 +1904,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2407,53 +2401,53 @@
       <c r="A2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="34"/>
+      <c r="C2" s="40"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="36"/>
+      <c r="C3" s="42"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="36"/>
+      <c r="C4" s="42"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="43" t="s">
         <v>307</v>
       </c>
-      <c r="C5" s="36"/>
+      <c r="C5" s="42"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6" s="44">
         <v>45548</v>
       </c>
-      <c r="C6" s="36"/>
+      <c r="C6" s="42"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="38"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
@@ -2540,7 +2534,7 @@
         <v>88</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16">
@@ -2656,7 +2650,7 @@
         <v>36</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J2" s="23" t="s">
         <v>305</v>
@@ -2685,10 +2679,10 @@
         <v>40</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J3" s="23" t="s">
         <v>305</v>
@@ -2720,7 +2714,7 @@
         <v>45</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="J4" s="23" t="s">
         <v>305</v>
@@ -2752,7 +2746,7 @@
         <v>45</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J5" s="23" t="s">
         <v>305</v>
@@ -2784,7 +2778,7 @@
         <v>53</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="J6" s="25" t="s">
         <v>306</v>
@@ -2798,7 +2792,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>33</v>
@@ -2810,13 +2804,13 @@
         <v>55</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="J7" s="25" t="s">
         <v>306</v>
@@ -2846,7 +2840,7 @@
         <v>59</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J8" s="26" t="s">
         <v>305</v>
@@ -2876,7 +2870,7 @@
         <v>62</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="J9" s="26" t="s">
         <v>305</v>
@@ -2906,7 +2900,7 @@
         <v>65</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="J10" s="26" t="s">
         <v>305</v>
@@ -2938,7 +2932,7 @@
         <v>70</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J11" s="26" t="s">
         <v>305</v>
@@ -2970,7 +2964,7 @@
         <v>70</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J12" s="26" t="s">
         <v>305</v>
@@ -3078,7 +3072,7 @@
         <v>143</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J2" s="23" t="s">
         <v>305</v>
@@ -3110,7 +3104,7 @@
         <v>147</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="J3" s="23" t="s">
         <v>305</v>
@@ -3142,7 +3136,7 @@
         <v>150</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J4" s="23" t="s">
         <v>305</v>
@@ -3174,7 +3168,7 @@
         <v>156</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J5" s="23" t="s">
         <v>305</v>
@@ -3206,7 +3200,7 @@
         <v>162</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="J6" s="23" t="s">
         <v>305</v>
@@ -3238,7 +3232,7 @@
         <v>166</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="J7" s="23" t="s">
         <v>305</v>
@@ -3270,7 +3264,7 @@
         <v>172</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J8" s="23" t="s">
         <v>305</v>
@@ -3302,7 +3296,7 @@
         <v>177</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="J9" s="23" t="s">
         <v>305</v>
@@ -3335,7 +3329,7 @@
         <v>181</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="J10" s="23" t="s">
         <v>305</v>
@@ -3344,50 +3338,50 @@
     </row>
     <row r="11" spans="1:26" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="C11" s="46" t="s">
-        <v>339</v>
-      </c>
-      <c r="D11" s="46" t="s">
+      <c r="C11" s="34" t="s">
+        <v>337</v>
+      </c>
+      <c r="D11" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="E11" s="46" t="s">
-        <v>342</v>
+      <c r="E11" s="34" t="s">
+        <v>340</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="G11" s="46" t="s">
-        <v>340</v>
-      </c>
-      <c r="H11" s="45" t="s">
-        <v>343</v>
-      </c>
-      <c r="I11" s="45" t="s">
-        <v>346</v>
-      </c>
-      <c r="J11" s="48" t="s">
-        <v>336</v>
-      </c>
-      <c r="K11" s="45"/>
+      <c r="G11" s="34" t="s">
+        <v>338</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="J11" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="K11" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="J11">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH(("NOT TESTED"),(J11))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH(("BLOCKED"),(J11))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH(("FAIL"),(J11))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH(("PASS"),(J11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3494,7 +3488,7 @@
         <v>194</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J2" s="23" t="s">
         <v>305</v>
@@ -3526,7 +3520,7 @@
         <v>199</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="J3" s="23" t="s">
         <v>305</v>
@@ -3558,7 +3552,7 @@
         <v>203</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="J4" s="23" t="s">
         <v>305</v>
@@ -3588,7 +3582,7 @@
         <v>208</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="J5" s="23" t="s">
         <v>305</v>
@@ -3620,7 +3614,7 @@
         <v>213</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="J6" s="23" t="s">
         <v>305</v>
@@ -3650,7 +3644,7 @@
         <v>217</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J7" s="23" t="s">
         <v>305</v>
@@ -3682,7 +3676,7 @@
         <v>222</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="J8" s="23" t="s">
         <v>305</v>
@@ -3714,7 +3708,7 @@
         <v>227</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="J9" s="23" t="s">
         <v>305</v>
@@ -3820,7 +3814,7 @@
         <v>96</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J2" s="23" t="s">
         <v>305</v>
@@ -3852,7 +3846,7 @@
         <v>278</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J3" s="23" t="s">
         <v>305</v>
@@ -3884,7 +3878,7 @@
         <v>283</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J4" s="23" t="s">
         <v>305</v>
@@ -3914,7 +3908,7 @@
         <v>287</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J5" s="23" t="s">
         <v>305</v>
@@ -3946,7 +3940,7 @@
         <v>292</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="J6" s="23" t="s">
         <v>305</v>
@@ -3976,7 +3970,7 @@
         <v>295</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J7" s="23" t="s">
         <v>305</v>
@@ -4006,7 +4000,7 @@
         <v>96</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J8" s="23" t="s">
         <v>305</v>
@@ -4036,7 +4030,7 @@
         <v>303</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="J9" s="23" t="s">
         <v>305</v>
@@ -4144,7 +4138,7 @@
         <v>91</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J2" s="21" t="s">
         <v>305</v>
@@ -4176,7 +4170,7 @@
         <v>96</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J3" s="21" t="s">
         <v>305</v>
@@ -4208,7 +4202,7 @@
         <v>103</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J4" s="21" t="s">
         <v>305</v>
@@ -4240,7 +4234,7 @@
         <v>103</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J5" s="21" t="s">
         <v>305</v>
@@ -4272,7 +4266,7 @@
         <v>111</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J6" s="21" t="s">
         <v>305</v>
@@ -4304,7 +4298,7 @@
         <v>111</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J7" s="21" t="s">
         <v>305</v>
@@ -4336,7 +4330,7 @@
         <v>120</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="J8" s="21" t="s">
         <v>305</v>
@@ -4368,7 +4362,7 @@
         <v>124</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="J9" s="21" t="s">
         <v>305</v>
@@ -4400,58 +4394,58 @@
         <v>65</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="J10" s="21" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="122.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="45" t="s">
-        <v>337</v>
+      <c r="A11" s="33" t="s">
+        <v>335</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="46" t="s">
-        <v>332</v>
+      <c r="C11" s="34" t="s">
+        <v>330</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="46" t="s">
-        <v>338</v>
-      </c>
-      <c r="F11" s="45" t="s">
+      <c r="E11" s="34" t="s">
+        <v>336</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>332</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>331</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="J11" s="35" t="s">
         <v>334</v>
       </c>
-      <c r="G11" s="46" t="s">
-        <v>333</v>
-      </c>
-      <c r="H11" s="45" t="s">
-        <v>335</v>
-      </c>
-      <c r="I11" s="45" t="s">
-        <v>346</v>
-      </c>
-      <c r="J11" s="47" t="s">
-        <v>336</v>
-      </c>
-      <c r="K11" s="45"/>
+      <c r="K11" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="J11">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="NOT TESTED">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="NOT TESTED">
       <formula>NOT(ISERROR(SEARCH(("NOT TESTED"),(J11))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="BLOCKED">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="BLOCKED">
       <formula>NOT(ISERROR(SEARCH(("BLOCKED"),(J11))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="FAIL">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH(("FAIL"),(J11))))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="PASS">
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH(("PASS"),(J11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4466,10 +4460,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A38CAD-C284-4C21-AF6F-422E5E0FEA12}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="126" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4614,34 +4608,6 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4652,7 +4618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59EDA974-A87A-41FC-B8F5-C25671E95EEE}">
   <dimension ref="A1:Z16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -4663,10 +4629,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="42"/>
+      <c r="B1" s="46"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -4796,10 +4762,10 @@
         <v>48</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="E5" s="44"/>
+      <c r="E5" s="48"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
